--- a/AI Testing.xlsx
+++ b/AI Testing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>MinimaxV2</t>
   </si>
@@ -38,6 +38,33 @@
   </si>
   <si>
     <t>Depth 6 is who goes first wins</t>
+  </si>
+  <si>
+    <t>Hash vs V1</t>
+  </si>
+  <si>
+    <t>depth 8 Hash won with MAX 20000 AVERAGE 6000</t>
+  </si>
+  <si>
+    <t>V1 MAX 62000 AVERAGE 24000</t>
+  </si>
+  <si>
+    <t>Hash went last</t>
+  </si>
+  <si>
+    <t>34 turns</t>
+  </si>
+  <si>
+    <t>depth 8 V1 won with MAX 104000 AVERAGE 25000</t>
+  </si>
+  <si>
+    <t>V1 went last</t>
+  </si>
+  <si>
+    <t>Hash MAX 12300 AVERAGE 6200</t>
+  </si>
+  <si>
+    <t>Seems like after depth 6 who goes last wins.</t>
   </si>
 </sst>
 </file>
@@ -379,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,6 +552,9 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -534,6 +564,48 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
